--- a/output/REAL_28911549000157.xlsx
+++ b/output/REAL_28911549000157.xlsx
@@ -779,10 +779,10 @@
         <v>44165</v>
       </c>
       <c r="B36">
-        <v>0.57375083</v>
+        <v>0.5702083099999999</v>
       </c>
       <c r="C36">
-        <v>0.01092509628080873</v>
+        <v>0.008649499468525113</v>
       </c>
     </row>
   </sheetData>

--- a/output/REAL_28911549000157.xlsx
+++ b/output/REAL_28911549000157.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>REAL INVESTOR FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,403 +383,298 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>43131</v>
       </c>
       <c r="B2">
-        <v>0.01102427000000006</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>43159</v>
       </c>
       <c r="B3">
-        <v>0.0022325700000001</v>
-      </c>
-      <c r="C3">
         <v>-0.008695834769624211</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>43190</v>
       </c>
       <c r="B4">
-        <v>0.03307977000000006</v>
-      </c>
-      <c r="C4">
         <v>0.03077848487801593</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>43220</v>
       </c>
       <c r="B5">
-        <v>0.0279006100000001</v>
-      </c>
-      <c r="C5">
         <v>-0.005013320510573904</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>43251</v>
       </c>
       <c r="B6">
-        <v>0.08286441999999994</v>
-      </c>
-      <c r="C6">
         <v>0.05347191106346338</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>43281</v>
       </c>
       <c r="B7">
-        <v>0.07425001000000009</v>
-      </c>
-      <c r="C7">
         <v>-0.007955206432952888</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>43312</v>
       </c>
       <c r="B8">
-        <v>0.0621978299999999</v>
-      </c>
-      <c r="C8">
         <v>-0.01121915744734336</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>43343</v>
       </c>
       <c r="B9">
-        <v>0.04681861000000009</v>
-      </c>
-      <c r="C9">
         <v>-0.01447867766779354</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>43373</v>
       </c>
       <c r="B10">
-        <v>0.01310112999999991</v>
-      </c>
-      <c r="C10">
         <v>-0.03220947705543775</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43404</v>
       </c>
       <c r="B11">
-        <v>0.04746578999999995</v>
-      </c>
-      <c r="C11">
         <v>0.03392026618310062</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43434</v>
       </c>
       <c r="B12">
-        <v>0.09180881000000007</v>
-      </c>
-      <c r="C12">
         <v>0.04233362122499496</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43465</v>
       </c>
       <c r="B13">
-        <v>0.1387435800000001</v>
-      </c>
-      <c r="C13">
         <v>0.04298808506591922</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43496</v>
       </c>
       <c r="B14">
-        <v>0.17446516</v>
-      </c>
-      <c r="C14">
         <v>0.03136929211052064</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43524</v>
       </c>
       <c r="B15">
-        <v>0.1963753500000001</v>
-      </c>
-      <c r="C15">
         <v>0.01865546186146561</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43555</v>
       </c>
       <c r="B16">
-        <v>0.1983212700000001</v>
-      </c>
-      <c r="C16">
         <v>0.001626512950137382</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43585</v>
       </c>
       <c r="B17">
-        <v>0.2023092200000001</v>
-      </c>
-      <c r="C17">
         <v>0.003327947270768128</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43616</v>
       </c>
       <c r="B18">
-        <v>0.2370514500000001</v>
-      </c>
-      <c r="C18">
         <v>0.02889625183112199</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43646</v>
       </c>
       <c r="B19">
-        <v>0.27171463</v>
-      </c>
-      <c r="C19">
         <v>0.02802080705697407</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43677</v>
       </c>
       <c r="B20">
-        <v>0.3051309</v>
-      </c>
-      <c r="C20">
         <v>0.0262765475930713</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43708</v>
       </c>
       <c r="B21">
-        <v>0.3196890100000001</v>
-      </c>
-      <c r="C21">
         <v>0.01115452097563563</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43738</v>
       </c>
       <c r="B22">
-        <v>0.3075287200000001</v>
-      </c>
-      <c r="C22">
         <v>-0.009214511834117589</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43769</v>
       </c>
       <c r="B23">
-        <v>0.3100832200000001</v>
-      </c>
-      <c r="C23">
         <v>0.001953685575640796</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43799</v>
       </c>
       <c r="B24">
-        <v>0.35928334</v>
-      </c>
-      <c r="C24">
         <v>0.03755495776825524</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43830</v>
       </c>
       <c r="B25">
-        <v>0.4465440199999999</v>
-      </c>
-      <c r="C25">
         <v>0.064196093214826</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43861</v>
       </c>
       <c r="B26">
-        <v>0.50778737</v>
-      </c>
-      <c r="C26">
         <v>0.04233770224289479</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43890</v>
       </c>
       <c r="B27">
-        <v>0.5152194400000001</v>
-      </c>
-      <c r="C27">
         <v>0.004929123394898927</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43921</v>
       </c>
       <c r="B28">
-        <v>0.4372340800000001</v>
-      </c>
-      <c r="C28">
         <v>-0.05146803026761593</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43951</v>
       </c>
       <c r="B29">
-        <v>0.4853029200000001</v>
-      </c>
-      <c r="C29">
         <v>0.03344538003162301</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43982</v>
       </c>
       <c r="B30">
-        <v>0.49886925</v>
-      </c>
-      <c r="C30">
         <v>0.009133712603217603</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>44012</v>
       </c>
       <c r="B31">
-        <v>0.5895387599999999</v>
-      </c>
-      <c r="C31">
         <v>0.06049194084140419</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>44043</v>
       </c>
       <c r="B32">
-        <v>0.59818584</v>
-      </c>
-      <c r="C32">
         <v>0.005439993171352464</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>44074</v>
       </c>
       <c r="B33">
-        <v>0.58616548</v>
-      </c>
-      <c r="C33">
         <v>-0.007521252972683024</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>44104</v>
       </c>
       <c r="B34">
-        <v>0.5636237399999999</v>
-      </c>
-      <c r="C34">
         <v>-0.01421146802413076</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>44135</v>
       </c>
       <c r="B35">
-        <v>0.55674326</v>
-      </c>
-      <c r="C35">
         <v>-0.004400342501834853</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>44165</v>
       </c>
       <c r="B36">
-        <v>0.5702083099999999</v>
-      </c>
-      <c r="C36">
-        <v>0.008649499468525113</v>
+        <v>-0.0006871396379130035</v>
       </c>
     </row>
   </sheetData>
